--- a/Newton - Documentos/Interfaces de usuario - Newton.xlsx
+++ b/Newton - Documentos/Interfaces de usuario - Newton.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Nombre</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Ingeneria Modelo x PT</t>
+  </si>
+  <si>
+    <t>Idem 1 + Operación</t>
   </si>
 </sst>
 </file>
@@ -414,13 +417,13 @@
   <dimension ref="B3:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B3:E16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -454,7 +457,10 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -465,7 +471,10 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -542,7 +551,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>5</v>

--- a/Newton - Documentos/Interfaces de usuario - Newton.xlsx
+++ b/Newton - Documentos/Interfaces de usuario - Newton.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Nombre</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Estructura de nomenclador</t>
   </si>
   <si>
-    <t>Ingeniero</t>
-  </si>
-  <si>
     <t>Valores x nomenclador</t>
   </si>
   <si>
@@ -76,6 +73,24 @@
   </si>
   <si>
     <t>Idem 1 + Operación</t>
+  </si>
+  <si>
+    <t>Pozo tipo only</t>
+  </si>
+  <si>
+    <t>Curie</t>
+  </si>
+  <si>
+    <t>En ingenieria modelo</t>
+  </si>
+  <si>
+    <t>Falta validar Pozo Requerido si automático o ABM</t>
+  </si>
+  <si>
+    <t>Ingenieria modelo</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -111,8 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,180 +432,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E16"/>
+  <dimension ref="B3:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
         <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
